--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5498489425981873</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9945355191256831</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.5495495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7081712062256809</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5015015015015015</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.133703866220817</v>
+        <v>0.09551329957952144</v>
       </c>
       <c r="J2" t="n">
-        <v>1769.776650611976</v>
+        <v>1178.226192778598</v>
       </c>
       <c r="K2" t="n">
-        <v>4473196.18839751</v>
+        <v>1660850.270041698</v>
       </c>
       <c r="L2" t="n">
-        <v>2114.993188735489</v>
+        <v>1288.739799199861</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1683081527730116</v>
+        <v>0.6912016439964668</v>
       </c>
     </row>
   </sheetData>
